--- a/datasheets/numbers.xlsx
+++ b/datasheets/numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/warming-SBB/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBE0EAE-C5E5-9D48-8748-9A5096E6828D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679D377-5DB6-D648-9085-D86D6B3FF54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="27640" windowHeight="16200" xr2:uid="{C658BF17-0B15-D24C-969A-4138CFC1E063}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16200" xr2:uid="{C658BF17-0B15-D24C-969A-4138CFC1E063}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,19 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5983EE6-2880-A449-BADE-26905816EA62}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f>1+2000</f>
         <v>2001</v>
@@ -443,8 +447,16 @@
         <f>G45+1</f>
         <v>2316</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2">
+        <f>H45+1</f>
+        <v>2361</v>
+      </c>
+      <c r="J1" s="2">
+        <f>I45+1</f>
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>1+A1</f>
         <v>2002</v>
@@ -477,8 +489,16 @@
         <f>H1+1</f>
         <v>2317</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <f>I1+1</f>
+        <v>2362</v>
+      </c>
+      <c r="J2" s="2">
+        <f>J1+1</f>
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A45" si="0">1+A2</f>
         <v>2003</v>
@@ -508,11 +528,19 @@
         <v>2273</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H45" si="7">H2+1</f>
+        <f t="shared" ref="H3:J45" si="7">H2+1</f>
         <v>2318</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <f t="shared" si="7"/>
+        <v>2363</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="7"/>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -545,8 +573,16 @@
         <f t="shared" si="7"/>
         <v>2319</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <f t="shared" si="7"/>
+        <v>2364</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="7"/>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -579,8 +615,16 @@
         <f t="shared" si="7"/>
         <v>2320</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <f t="shared" si="7"/>
+        <v>2365</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="7"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -613,8 +657,16 @@
         <f t="shared" si="7"/>
         <v>2321</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <f t="shared" si="7"/>
+        <v>2366</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="7"/>
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -647,8 +699,16 @@
         <f t="shared" si="7"/>
         <v>2322</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>2367</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="7"/>
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -681,8 +741,16 @@
         <f t="shared" si="7"/>
         <v>2323</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <f t="shared" si="7"/>
+        <v>2368</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="7"/>
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -715,8 +783,16 @@
         <f t="shared" si="7"/>
         <v>2324</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>2369</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="7"/>
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -749,8 +825,16 @@
         <f t="shared" si="7"/>
         <v>2325</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>2370</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="7"/>
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -783,8 +867,16 @@
         <f t="shared" si="7"/>
         <v>2326</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>2371</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="7"/>
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -817,8 +909,16 @@
         <f t="shared" si="7"/>
         <v>2327</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>2372</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="7"/>
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -851,8 +951,16 @@
         <f t="shared" si="7"/>
         <v>2328</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>2373</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="7"/>
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -885,8 +993,16 @@
         <f t="shared" si="7"/>
         <v>2329</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>2374</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="7"/>
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -919,8 +1035,16 @@
         <f t="shared" si="7"/>
         <v>2330</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <f t="shared" si="7"/>
+        <v>2375</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="7"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -953,8 +1077,16 @@
         <f t="shared" si="7"/>
         <v>2331</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <f t="shared" si="7"/>
+        <v>2376</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="7"/>
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -987,8 +1119,16 @@
         <f t="shared" si="7"/>
         <v>2332</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <f t="shared" si="7"/>
+        <v>2377</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="7"/>
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1021,8 +1161,16 @@
         <f t="shared" si="7"/>
         <v>2333</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
+        <v>2378</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="7"/>
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1055,8 +1203,16 @@
         <f t="shared" si="7"/>
         <v>2334</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
+        <v>2379</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="7"/>
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1089,8 +1245,16 @@
         <f t="shared" si="7"/>
         <v>2335</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2">
+        <f t="shared" si="7"/>
+        <v>2380</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="7"/>
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1123,8 +1287,16 @@
         <f t="shared" si="7"/>
         <v>2336</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="2">
+        <f t="shared" si="7"/>
+        <v>2381</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="7"/>
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -1157,8 +1329,16 @@
         <f t="shared" si="7"/>
         <v>2337</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2">
+        <f t="shared" si="7"/>
+        <v>2382</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="7"/>
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -1191,8 +1371,16 @@
         <f t="shared" si="7"/>
         <v>2338</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <f t="shared" si="7"/>
+        <v>2383</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="7"/>
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -1225,8 +1413,16 @@
         <f>H23+1</f>
         <v>2339</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2">
+        <f t="shared" ref="I24:J31" si="8">I23+1</f>
+        <v>2384</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ref="J24:J27" si="9">J23+1</f>
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -1259,8 +1455,16 @@
         <f t="shared" si="7"/>
         <v>2340</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2">
+        <f t="shared" si="8"/>
+        <v>2385</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="9"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -1293,8 +1497,16 @@
         <f t="shared" si="7"/>
         <v>2341</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <f t="shared" si="8"/>
+        <v>2386</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="9"/>
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>2027</v>
@@ -1327,8 +1539,16 @@
         <f t="shared" si="7"/>
         <v>2342</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>2387</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="9"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
@@ -1361,8 +1581,16 @@
         <f t="shared" si="7"/>
         <v>2343</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2">
+        <f t="shared" si="8"/>
+        <v>2388</v>
+      </c>
+      <c r="J28" s="2">
+        <f>J27+1</f>
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
@@ -1395,8 +1623,16 @@
         <f t="shared" si="7"/>
         <v>2344</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2">
+        <f t="shared" si="8"/>
+        <v>2389</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="8"/>
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -1429,8 +1665,16 @@
         <f t="shared" si="7"/>
         <v>2345</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2">
+        <f t="shared" si="8"/>
+        <v>2390</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="8"/>
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>2031</v>
@@ -1463,8 +1707,16 @@
         <f t="shared" si="7"/>
         <v>2346</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>2391</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="8"/>
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>2032</v>
@@ -1497,8 +1749,16 @@
         <f t="shared" si="7"/>
         <v>2347</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2">
+        <f>I31+1</f>
+        <v>2392</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ref="J32" si="10">J31+1</f>
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>2033</v>
@@ -1531,8 +1791,16 @@
         <f t="shared" si="7"/>
         <v>2348</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="2">
+        <f t="shared" ref="I33:J33" si="11">I32+1</f>
+        <v>2393</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="11"/>
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>2034</v>
@@ -1565,8 +1833,16 @@
         <f t="shared" si="7"/>
         <v>2349</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2">
+        <f t="shared" ref="I34:J34" si="12">I33+1</f>
+        <v>2394</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="12"/>
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>2035</v>
@@ -1599,8 +1875,16 @@
         <f t="shared" si="7"/>
         <v>2350</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="2">
+        <f t="shared" ref="I35:J35" si="13">I34+1</f>
+        <v>2395</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="13"/>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>2036</v>
@@ -1633,8 +1917,16 @@
         <f t="shared" si="7"/>
         <v>2351</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="2">
+        <f t="shared" ref="I36:J36" si="14">I35+1</f>
+        <v>2396</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="14"/>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>2037</v>
@@ -1667,8 +1959,16 @@
         <f t="shared" si="7"/>
         <v>2352</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2">
+        <f t="shared" ref="I37:J37" si="15">I36+1</f>
+        <v>2397</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="15"/>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>2038</v>
@@ -1701,8 +2001,16 @@
         <f t="shared" si="7"/>
         <v>2353</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:J38" si="16">I37+1</f>
+        <v>2398</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="16"/>
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>2039</v>
@@ -1735,8 +2043,16 @@
         <f t="shared" si="7"/>
         <v>2354</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="2">
+        <f t="shared" ref="I39:J39" si="17">I38+1</f>
+        <v>2399</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="17"/>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>2040</v>
@@ -1769,8 +2085,16 @@
         <f t="shared" si="7"/>
         <v>2355</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2">
+        <f t="shared" ref="I40:J40" si="18">I39+1</f>
+        <v>2400</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="18"/>
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>2041</v>
@@ -1803,8 +2127,16 @@
         <f t="shared" si="7"/>
         <v>2356</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <f t="shared" ref="I41:J41" si="19">I40+1</f>
+        <v>2401</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="19"/>
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>2042</v>
@@ -1837,8 +2169,16 @@
         <f t="shared" si="7"/>
         <v>2357</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="2">
+        <f t="shared" ref="I42:J42" si="20">I41+1</f>
+        <v>2402</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="20"/>
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>2043</v>
@@ -1871,8 +2211,16 @@
         <f t="shared" si="7"/>
         <v>2358</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="2">
+        <f t="shared" ref="I43:J43" si="21">I42+1</f>
+        <v>2403</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="21"/>
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>2044</v>
@@ -1905,8 +2253,16 @@
         <f t="shared" si="7"/>
         <v>2359</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <f t="shared" ref="I44:J44" si="22">I43+1</f>
+        <v>2404</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="22"/>
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>2045</v>
@@ -1938,6 +2294,14 @@
       <c r="H45" s="1">
         <f t="shared" si="7"/>
         <v>2360</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ref="I45:J45" si="23">I44+1</f>
+        <v>2405</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="23"/>
+        <v>2450</v>
       </c>
     </row>
   </sheetData>
